--- a/601_Trade Discount 5944 to 6011.xlsx
+++ b/601_Trade Discount 5944 to 6011.xlsx
@@ -419,1160 +419,1228 @@
         <v>GrandTotal</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>SAMBARI ENTERPRISE[GA0002]</v>
       </c>
       <c r="B2" t="str">
         <v>601/23/T1-5944</v>
       </c>
-      <c r="C2" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D2" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E2" t="str">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>112300</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>COSME MATIAS MENEZES PVT.LTD[GA0005]</v>
       </c>
       <c r="B3" t="str">
         <v>601/23/T1-5945</v>
       </c>
-      <c r="C3" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D3" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E3" t="str">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>38200</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>RAIKAR DISTRIBUTORS[GA0006]</v>
       </c>
       <c r="B4" t="str">
         <v>601/23/T1-5946</v>
       </c>
-      <c r="C4" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D4" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E4" t="str">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>DROGARIA SALCETE[GA0007]</v>
       </c>
       <c r="B5" t="str">
         <v>601/23/T1-5947</v>
       </c>
-      <c r="C5" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D5" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E5" t="str">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>G.N. AGENCIES[GA0008]</v>
       </c>
       <c r="B6" t="str">
         <v>601/23/T1-5948</v>
       </c>
-      <c r="C6" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D6" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E6" t="str">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>99400</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>VISION HEALTHCARE HOLDINGS[GA0012]</v>
       </c>
       <c r="B7" t="str">
         <v>601/23/T1-5949</v>
       </c>
-      <c r="C7" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D7" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E7" t="str">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>202100</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>AMAN AGENCIES[MH0063]</v>
       </c>
       <c r="B8" t="str">
         <v>601/23/T1-5950</v>
       </c>
-      <c r="C8" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D8" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E8" t="str">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>GANDHI AGENCIES[MH0070]</v>
       </c>
       <c r="B9" t="str">
         <v>601/23/T1-5951</v>
       </c>
-      <c r="C9" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D9" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E9" t="str">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>111600</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>PRIYA AGENCIES[MH0071]</v>
       </c>
       <c r="B10" t="str">
         <v>601/23/T1-5952</v>
       </c>
-      <c r="C10" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D10" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E10" t="str">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>154300</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>BAJAJ MEDICAL STORES[MH0072]</v>
       </c>
       <c r="B11" t="str">
         <v>601/23/T1-5953</v>
       </c>
-      <c r="C11" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D11" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E11" t="str">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>211000</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
       <c r="A12" t="str">
         <v>BAFNA MEDICO[MH0073]</v>
       </c>
       <c r="B12" t="str">
         <v>601/23/T1-5954</v>
       </c>
-      <c r="C12" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D12" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E12" t="str">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>116900</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
       <c r="A13" t="str">
         <v>BARROS ENTERPRISES PRIVATE LIMITED[GA0011]</v>
       </c>
       <c r="B13" t="str">
         <v>601/23/T1-5955</v>
       </c>
-      <c r="C13" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D13" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E13" t="str">
-        <v>3405</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>340500</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
       <c r="A14" t="str">
         <v>GAJANAN PHARMA[MH0086]</v>
       </c>
       <c r="B14" t="str">
         <v>601/23/T1-5956</v>
       </c>
-      <c r="C14" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D14" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E14" t="str">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
       <c r="A15" t="str">
         <v>KAMAL AGENCIES[MH0089]</v>
       </c>
       <c r="B15" t="str">
         <v>601/23/T1-5957</v>
       </c>
-      <c r="C15" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D15" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E15" t="str">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
       <c r="A16" t="str">
         <v>KONKAN DISTRIBUTORS[MH0090]</v>
       </c>
       <c r="B16" t="str">
         <v>601/23/T1-5958</v>
       </c>
-      <c r="C16" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D16" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E16" t="str">
-        <v>2857</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>285700</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
       <c r="A17" t="str">
         <v>PAREKH MEDICAL STORES[MH0094]</v>
       </c>
       <c r="B17" t="str">
         <v>601/23/T1-5959</v>
       </c>
-      <c r="C17" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D17" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E17" t="str">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
       <c r="A18" t="str">
         <v>POPHALE MEDICALS[MH0095]</v>
       </c>
       <c r="B18" t="str">
         <v>601/23/T1-5960</v>
       </c>
-      <c r="C18" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D18" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E18" t="str">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
       <c r="A19" t="str">
         <v>RAJYOG DISTRIBUTORS[MH0098]</v>
       </c>
       <c r="B19" t="str">
         <v>601/23/T1-5961</v>
       </c>
-      <c r="C19" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D19" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E19" t="str">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20" t="str">
         <v>RAM AGENCY[MH0099]</v>
       </c>
       <c r="B20" t="str">
         <v>601/23/T1-5962</v>
       </c>
-      <c r="C20" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D20" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E20" t="str">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
       <c r="A21" t="str">
         <v>VENKATESH MEDICALS[MH0105]</v>
       </c>
       <c r="B21" t="str">
         <v>601/23/T1-5963</v>
       </c>
-      <c r="C21" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D21" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E21" t="str">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>25700</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
       <c r="A22" t="str">
         <v>SHANTI ENTERPRISES[MH0107]</v>
       </c>
       <c r="B22" t="str">
         <v>601/23/T1-5964</v>
       </c>
-      <c r="C22" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D22" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E22" t="str">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>208400</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
       <c r="A23" t="str">
         <v>MALU MEDICO[MH0109]</v>
       </c>
       <c r="B23" t="str">
         <v>601/23/T1-5965</v>
       </c>
-      <c r="C23" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D23" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E23" t="str">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
       <c r="A24" t="str">
         <v>CHAPSI SALES DEPOT[MH0116]</v>
       </c>
       <c r="B24" t="str">
         <v>601/23/T1-5966</v>
       </c>
-      <c r="C24" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D24" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E24" t="str">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
       <c r="A25" t="str">
         <v>AMIT DISTRIBUTORS[MH0117]</v>
       </c>
       <c r="B25" t="str">
         <v>601/23/T1-5967</v>
       </c>
-      <c r="C25" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D25" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E25" t="str">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
       <c r="A26" t="str">
         <v>ASHWIN MEDICAL STORES[MH0118]</v>
       </c>
       <c r="B26" t="str">
         <v>601/23/T1-5968</v>
       </c>
-      <c r="C26" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D26" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E26" t="str">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
       <c r="A27" t="str">
         <v>MANMAD MEDICAL AGENCIES[MH0133]</v>
       </c>
       <c r="B27" t="str">
         <v>601/23/T1-5969</v>
       </c>
-      <c r="C27" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D27" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E27" t="str">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
       <c r="A28" t="str">
         <v>MAHESH MEDICAL STORES[MH0155]</v>
       </c>
       <c r="B28" t="str">
         <v>601/23/T1-5970</v>
       </c>
-      <c r="C28" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D28" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E28" t="str">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
       <c r="A29" t="str">
         <v>KOTALWAR AGENCIES[MH0158]</v>
       </c>
       <c r="B29" t="str">
         <v>601/23/T1-5971</v>
       </c>
-      <c r="C29" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D29" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E29" t="str">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
       <c r="A30" t="str">
         <v>BRIDGE MEDISALES PVT. LTD[MH0163]</v>
       </c>
       <c r="B30" t="str">
         <v>601/23/T1-5972</v>
       </c>
-      <c r="C30" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D30" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E30" t="str">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>87100</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
       <c r="A31" t="str">
         <v>INPHARMA SERVICES[MH0170]</v>
       </c>
       <c r="B31" t="str">
         <v>601/23/T1-5973</v>
       </c>
-      <c r="C31" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D31" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E31" t="str">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
       <c r="A32" t="str">
         <v>SAHAR AGENCIES[MH0666]</v>
       </c>
       <c r="B32" t="str">
         <v>601/23/T1-5974</v>
       </c>
-      <c r="C32" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D32" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E32" t="str">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
       <c r="A33" t="str">
         <v>DEEPAK MEDICAL STORES[MH0174]</v>
       </c>
       <c r="B33" t="str">
         <v>601/23/T1-5975</v>
       </c>
-      <c r="C33" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D33" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E33" t="str">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
       <c r="A34" t="str">
         <v>KARWA AGENCIES(SANGAMNER)[MH0182]</v>
       </c>
       <c r="B34" t="str">
         <v>601/23/T1-5976</v>
       </c>
-      <c r="C34" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D34" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E34" t="str">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
       <c r="A35" t="str">
         <v>JAWAHAR AGENCIES[MH0183]</v>
       </c>
       <c r="B35" t="str">
         <v>601/23/T1-5977</v>
       </c>
-      <c r="C35" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D35" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E35" t="str">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>39100</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
       <c r="A36" t="str">
         <v>KARWA AGENCIES[MH0185]</v>
       </c>
       <c r="B36" t="str">
         <v>601/23/T1-5978</v>
       </c>
-      <c r="C36" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D36" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E36" t="str">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
       <c r="A37" t="str">
         <v>VIJAYA TRADERS[MH0187]</v>
       </c>
       <c r="B37" t="str">
         <v>601/23/T1-5979</v>
       </c>
-      <c r="C37" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D37" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E37" t="str">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
       <c r="A38" t="str">
         <v>WATTAMWAR DISTRIBUTORS[MH0190]</v>
       </c>
       <c r="B38" t="str">
         <v>601/23/T1-5980</v>
       </c>
-      <c r="C38" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D38" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E38" t="str">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
       <c r="A39" t="str">
         <v>EMPIRE GENERAL AGENCIES[MH0198]</v>
       </c>
       <c r="B39" t="str">
         <v>601/23/T1-5981</v>
       </c>
-      <c r="C39" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D39" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E39" t="str">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>131200</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
       <c r="A40" t="str">
         <v>OM TRADERS[MH0203]</v>
       </c>
       <c r="B40" t="str">
         <v>601/23/T1-5982</v>
       </c>
-      <c r="C40" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D40" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E40" t="str">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>40400</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
       <c r="A41" t="str">
         <v>RAJMANE MEDICAL STORES[MH0207]</v>
       </c>
       <c r="B41" t="str">
         <v>601/23/T1-5983</v>
       </c>
-      <c r="C41" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D41" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E41" t="str">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
       <c r="A42" t="str">
         <v>PIONEER DISTRIBUTORS[MH0213]</v>
       </c>
       <c r="B42" t="str">
         <v>601/23/T1-5984</v>
       </c>
-      <c r="C42" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D42" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E42" t="str">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
       <c r="A43" t="str">
         <v>GANRAJ MEDICAL AGENCIES[MH0220]</v>
       </c>
       <c r="B43" t="str">
         <v>601/23/T1-5985</v>
       </c>
-      <c r="C43" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D43" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E43" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
       <c r="A44" t="str">
         <v>M.S.C.D. ASSOCIATES[MH0221]</v>
       </c>
       <c r="B44" t="str">
         <v>601/23/T1-5986</v>
       </c>
-      <c r="C44" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D44" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E44" t="str">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
       <c r="A45" t="str">
         <v>PIONEER CHEMISTS[MH0223]</v>
       </c>
       <c r="B45" t="str">
         <v>601/23/T1-5987</v>
       </c>
-      <c r="C45" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D45" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E45" t="str">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>40200</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
       <c r="A46" t="str">
         <v>PRABHAT MEDICAL STORES (AHMEDPUR)[MH0226]</v>
       </c>
       <c r="B46" t="str">
         <v>601/23/T1-5988</v>
       </c>
-      <c r="C46" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D46" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E46" t="str">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
       <c r="A47" t="str">
         <v>MAHAVIR MEDICAL AND GENERAL STORES[MH0231]</v>
       </c>
       <c r="B47" t="str">
         <v>601/23/T1-5989</v>
       </c>
-      <c r="C47" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D47" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E47" t="str">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
       <c r="A48" t="str">
         <v>SHRI NARENDRA MEDICAL &amp; GENERAL STORES[MH0237]</v>
       </c>
       <c r="B48" t="str">
         <v>601/23/T1-5990</v>
       </c>
-      <c r="C48" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D48" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E48" t="str">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
       <c r="A49" t="str">
         <v>SURESH MEDICAL AGENCIES[MH0244]</v>
       </c>
       <c r="B49" t="str">
         <v>601/23/T1-5991</v>
       </c>
-      <c r="C49" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D49" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E49" t="str">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
       <c r="A50" t="str">
         <v>DVS ENTERPRISE LLP[MH0649]</v>
       </c>
       <c r="B50" t="str">
         <v>601/23/T1-5992</v>
       </c>
-      <c r="C50" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D50" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E50" t="str">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
       <c r="A51" t="str">
         <v>SANGEETA MEDICAL AGENCY[MH0246]</v>
       </c>
       <c r="B51" t="str">
         <v>601/23/T1-5993</v>
       </c>
-      <c r="C51" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C51" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D51" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E51" t="str">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>99100</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
       <c r="A52" t="str">
         <v>DINESH MEDICAL STORES[MH0253]</v>
       </c>
       <c r="B52" t="str">
         <v>601/23/T1-5994</v>
       </c>
-      <c r="C52" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D52" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E52" t="str">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
       <c r="A53" t="str">
         <v>TOSHNIWAL MEDICAL AGENCIES[MH0259]</v>
       </c>
       <c r="B53" t="str">
         <v>601/23/T1-5995</v>
       </c>
-      <c r="C53" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D53" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E53" t="str">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>32300</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
       <c r="A54" t="str">
         <v>T.S.AGENCIES[MH0261]</v>
       </c>
       <c r="B54" t="str">
         <v>601/23/T1-5996</v>
       </c>
-      <c r="C54" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D54" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E54" t="str">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>75700</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
       <c r="A55" t="str">
         <v>H M V AGENCIES[MH0267]</v>
       </c>
       <c r="B55" t="str">
         <v>601/23/T1-5997</v>
       </c>
-      <c r="C55" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D55" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E55" t="str">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>51800</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
       <c r="A56" t="str">
         <v>RAGHUVIR ENTERPRISES[MH0271]</v>
       </c>
       <c r="B56" t="str">
         <v>601/23/T1-5998</v>
       </c>
-      <c r="C56" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D56" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E56" t="str">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>35300</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
       <c r="A57" t="str">
         <v>SATARA DISTRIBUTORS[MH0275]</v>
       </c>
       <c r="B57" t="str">
         <v>601/23/T1-5999</v>
       </c>
-      <c r="C57" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D57" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E57" t="str">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>51900</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
       <c r="A58" t="str">
         <v>GANESH MEDICAL AGENCEIS[MH0284]</v>
       </c>
       <c r="B58" t="str">
         <v>601/23/T1-6000</v>
       </c>
-      <c r="C58" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D58" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E58" t="str">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>106500</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
       <c r="A59" t="str">
         <v>KALPANA MEDICALS[MH0285]</v>
       </c>
       <c r="B59" t="str">
         <v>601/23/T1-6001</v>
       </c>
-      <c r="C59" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C59" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D59" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E59" t="str">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>66700</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
       <c r="A60" t="str">
         <v>GANJEWAR MEDICAL AGENCIES[MH0287]</v>
       </c>
       <c r="B60" t="str">
         <v>601/23/T1-6002</v>
       </c>
-      <c r="C60" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D60" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E60" t="str">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
       <c r="A61" t="str">
         <v>PRABHAT MEDICAL STORES[MH0301]</v>
       </c>
       <c r="B61" t="str">
         <v>601/23/T1-6003</v>
       </c>
-      <c r="C61" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D61" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E61" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
       <c r="A62" t="str">
         <v>KATRUWAR ENTERPRISES[MH0302]</v>
       </c>
       <c r="B62" t="str">
         <v>601/23/T1-6004</v>
       </c>
-      <c r="C62" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D62" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E62" t="str">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>90800</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
       <c r="A63" t="str">
         <v>SHRADHA AGENCIES[MH0313]</v>
       </c>
       <c r="B63" t="str">
         <v>601/23/T1-6005</v>
       </c>
-      <c r="C63" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D63" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E63" t="str">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
       <c r="A64" t="str">
         <v>GAYATRI MEDICAL AGENCIES[MH0336]</v>
       </c>
       <c r="B64" t="str">
         <v>601/23/T1-6006</v>
       </c>
-      <c r="C64" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C64" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D64" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E64" t="str">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
       <c r="A65" t="str">
         <v>MODEL CHEMISTS[MH0344]</v>
       </c>
       <c r="B65" t="str">
         <v>601/23/T1-6007</v>
       </c>
-      <c r="C65" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D65" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E65" t="str">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>113700</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
       <c r="A66" t="str">
         <v>BALAJI MEDICAL STORES[MH0355]</v>
       </c>
       <c r="B66" t="str">
         <v>601/23/T1-6008</v>
       </c>
-      <c r="C66" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C66" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D66" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E66" t="str">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
       <c r="A67" t="str">
         <v>GAJANAN AGENCIES[MH0364]</v>
       </c>
       <c r="B67" t="str">
         <v>601/23/T1-6009</v>
       </c>
-      <c r="C67" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D67" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E67" t="str">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>239700</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
       <c r="A68" t="str">
         <v>KAMALA MEDICAL AGENCIES[MH0368]</v>
       </c>
       <c r="B68" t="str">
         <v>601/23/T1-6010</v>
       </c>
-      <c r="C68" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D68" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E68" t="str">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>33200</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
       <c r="A69" t="str">
         <v>SANGLI MEDICAL HUB LLP[MH0627]</v>
       </c>
       <c r="B69" t="str">
         <v>601/23/T1-6011</v>
       </c>
-      <c r="C69" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D69" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E69" t="str">
-        <v>392</v>
+        <v>39200</v>
       </c>
     </row>
   </sheetData>
